--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efna1-Epha2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H2">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J2">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.55727433333333</v>
+        <v>10.858287</v>
       </c>
       <c r="N2">
-        <v>34.671823</v>
+        <v>32.574861</v>
       </c>
       <c r="O2">
-        <v>0.5239815261112396</v>
+        <v>0.5084025289165609</v>
       </c>
       <c r="P2">
-        <v>0.5239815261112395</v>
+        <v>0.508402528916561</v>
       </c>
       <c r="Q2">
-        <v>137.5964586620483</v>
+        <v>256.5853936676249</v>
       </c>
       <c r="R2">
-        <v>1238.368127958435</v>
+        <v>2309.268543008624</v>
       </c>
       <c r="S2">
-        <v>0.4295117518198133</v>
+        <v>0.4576841966665018</v>
       </c>
       <c r="T2">
-        <v>0.4295117518198132</v>
+        <v>0.4576841966665019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H3">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I3">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J3">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.284314</v>
       </c>
       <c r="O3">
-        <v>0.004296724853919303</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="P3">
-        <v>0.004296724853919302</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="Q3">
-        <v>1.128311007703333</v>
+        <v>2.239482145916666</v>
       </c>
       <c r="R3">
-        <v>10.15479906933</v>
+        <v>20.15533931324999</v>
       </c>
       <c r="S3">
-        <v>0.003522058941258969</v>
+        <v>0.003994676283992119</v>
       </c>
       <c r="T3">
-        <v>0.003522058941258969</v>
+        <v>0.003994676283992119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.905615</v>
+        <v>23.630375</v>
       </c>
       <c r="H4">
-        <v>35.716845</v>
+        <v>70.89112499999999</v>
       </c>
       <c r="I4">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414131</v>
       </c>
       <c r="J4">
-        <v>0.8197078149061106</v>
+        <v>0.9002398112414129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>31.213797</v>
       </c>
       <c r="O4">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="P4">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="Q4">
-        <v>123.873149923385</v>
+        <v>245.864576094625</v>
       </c>
       <c r="R4">
-        <v>1114.858349310465</v>
+        <v>2212.781184851624</v>
       </c>
       <c r="S4">
-        <v>0.3866740041450382</v>
+        <v>0.4385609382909191</v>
       </c>
       <c r="T4">
-        <v>0.3866740041450382</v>
+        <v>0.4385609382909191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I5">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J5">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.55727433333333</v>
+        <v>10.858287</v>
       </c>
       <c r="N5">
-        <v>34.671823</v>
+        <v>32.574861</v>
       </c>
       <c r="O5">
-        <v>0.5239815261112396</v>
+        <v>0.5084025289165609</v>
       </c>
       <c r="P5">
-        <v>0.5239815261112395</v>
+        <v>0.508402528916561</v>
       </c>
       <c r="Q5">
-        <v>18.85384391094</v>
+        <v>17.71355791458</v>
       </c>
       <c r="R5">
-        <v>169.68459519846</v>
+        <v>159.42202123122</v>
       </c>
       <c r="S5">
-        <v>0.05885287750475169</v>
+        <v>0.03159655897927693</v>
       </c>
       <c r="T5">
-        <v>0.05885287750475168</v>
+        <v>0.03159655897927693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I6">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J6">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.284314</v>
       </c>
       <c r="O6">
-        <v>0.004296724853919303</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="P6">
-        <v>0.004296724853919302</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="Q6">
         <v>0.15460426692</v>
@@ -818,10 +818,10 @@
         <v>1.39143840228</v>
       </c>
       <c r="S6">
-        <v>0.0004826021699201097</v>
+        <v>0.0002757753615474872</v>
       </c>
       <c r="T6">
-        <v>0.0004826021699201096</v>
+        <v>0.0002757753615474872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.894019999999999</v>
       </c>
       <c r="I7">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="J7">
-        <v>0.1123186115768849</v>
+        <v>0.06214870537054815</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>31.213797</v>
       </c>
       <c r="O7">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="P7">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="Q7">
         <v>16.97343853266</v>
@@ -880,10 +880,10 @@
         <v>152.76094679394</v>
       </c>
       <c r="S7">
-        <v>0.05298313190221308</v>
+        <v>0.03027637102972373</v>
       </c>
       <c r="T7">
-        <v>0.05298313190221308</v>
+        <v>0.03027637102972373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>2.961789</v>
       </c>
       <c r="I8">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J8">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.55727433333333</v>
+        <v>10.858287</v>
       </c>
       <c r="N8">
-        <v>34.671823</v>
+        <v>32.574861</v>
       </c>
       <c r="O8">
-        <v>0.5239815261112396</v>
+        <v>0.5084025289165609</v>
       </c>
       <c r="P8">
-        <v>0.5239815261112395</v>
+        <v>0.508402528916561</v>
       </c>
       <c r="Q8">
-        <v>11.41006933014967</v>
+        <v>10.719984998481</v>
       </c>
       <c r="R8">
-        <v>102.690623971347</v>
+        <v>96.47986498632899</v>
       </c>
       <c r="S8">
-        <v>0.03561689678667456</v>
+        <v>0.01912177327078223</v>
       </c>
       <c r="T8">
-        <v>0.03561689678667455</v>
+        <v>0.01912177327078223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.961789</v>
       </c>
       <c r="I9">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J9">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.284314</v>
       </c>
       <c r="O9">
-        <v>0.004296724853919303</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="P9">
-        <v>0.004296724853919302</v>
+        <v>0.004437346842596906</v>
       </c>
       <c r="Q9">
         <v>0.09356423086066665</v>
@@ -1004,10 +1004,10 @@
         <v>0.8420780777459999</v>
       </c>
       <c r="S9">
-        <v>0.0002920637427402242</v>
+        <v>0.0001668951970573007</v>
       </c>
       <c r="T9">
-        <v>0.0002920637427402241</v>
+        <v>0.0001668951970573007</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.961789</v>
       </c>
       <c r="I10">
-        <v>0.0679735735170045</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="J10">
-        <v>0.06797357351700449</v>
+        <v>0.03761148338803896</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>31.213797</v>
       </c>
       <c r="O10">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="P10">
-        <v>0.471721749034841</v>
+        <v>0.4871601242408422</v>
       </c>
       <c r="Q10">
         <v>10.272075622537</v>
@@ -1066,10 +1066,10 @@
         <v>92.44868060283299</v>
       </c>
       <c r="S10">
-        <v>0.03206461298758972</v>
+        <v>0.01832281492019943</v>
       </c>
       <c r="T10">
-        <v>0.03206461298758971</v>
+        <v>0.01832281492019943</v>
       </c>
     </row>
   </sheetData>
